--- a/CalorieTracker.xlsx
+++ b/CalorieTracker.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -530,6 +530,43 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3 eggs omlette</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CalorieTracker.xlsx
+++ b/CalorieTracker.xlsx
@@ -1,33 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnkitShukla\Desktop\HealthLoggerAI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B323C9-90FB-4AA6-80EB-459C05AD6D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Macros" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Macros" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Calories</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Carbs</t>
+  </si>
+  <si>
+    <t>Fats</t>
+  </si>
+  <si>
+    <t>Cholestrol</t>
+  </si>
+  <si>
+    <t>03/07/2025</t>
+  </si>
+  <si>
+    <t>1 bowl black chana with vegetables, 3 parathas with 2 egg's bhurji, 2 glass banana shake with greek yoghurt, 1 chocolate pudding worth 25 gm pudding</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>07/07/2025</t>
+  </si>
+  <si>
+    <t>1 burger with tomatoes, onions, and cucumbers, inside</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>3 eggs omlette</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>09/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 thick besan chila with tomatoes, onion, and carrot grated </t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,84 +158,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -395,177 +442,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
-    <col width="17.5546875" customWidth="1" min="3" max="3"/>
-    <col width="11.109375" customWidth="1" min="4" max="5"/>
-    <col width="11.21875" customWidth="1" min="6" max="6"/>
-    <col width="15.5546875" customWidth="1" min="7" max="7"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Calories</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Protein</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Carbs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Fats</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Cholestrol</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="57.6" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>03/07/2025</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>1 bowl black chana with vegetables, 3 parathas with 2 egg's bhurji, 2 glass banana shake with greek yoghurt, 1 chocolate pudding worth 25 gm pudding</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1250</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
+    <row r="2" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="10">
-      <c r="K10" s="2" t="n"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1 burger with tomatoes, onions, and cucumbers, inside</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>295</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3 eggs omlette</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>561</t>
-        </is>
-      </c>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CalorieTracker.xlsx
+++ b/CalorieTracker.xlsx
@@ -1,139 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnkitShukla\Desktop\HealthLoggerAI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B323C9-90FB-4AA6-80EB-459C05AD6D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Macros" sheetId="1" r:id="rId1"/>
+    <sheet name="Macros" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Calories</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>Carbs</t>
-  </si>
-  <si>
-    <t>Fats</t>
-  </si>
-  <si>
-    <t>Cholestrol</t>
-  </si>
-  <si>
-    <t>03/07/2025</t>
-  </si>
-  <si>
-    <t>1 bowl black chana with vegetables, 3 parathas with 2 egg's bhurji, 2 glass banana shake with greek yoghurt, 1 chocolate pudding worth 25 gm pudding</t>
-  </si>
-  <si>
-    <t>1250</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>07/07/2025</t>
-  </si>
-  <si>
-    <t>1 burger with tomatoes, onions, and cucumbers, inside</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>3 eggs omlette</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>09/07/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 thick besan chila with tomatoes, onion, and carrot grated </t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -158,25 +52,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -442,140 +395,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="17.5546875" customWidth="1" min="3" max="3"/>
+    <col width="11.109375" customWidth="1" min="4" max="5"/>
+    <col width="11.21875" customWidth="1" min="6" max="6"/>
+    <col width="15.5546875" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Calories</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Protein</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Carbs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fats</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cholestrol</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+    <row r="2" ht="57.6" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>1 bowl black chana with vegetables, 3 parathas with 2 egg's bhurji, 2 glass banana shake with greek yoghurt, 1 chocolate pudding worth 25 gm pudding</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1250</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1 burger with tomatoes, onions, and cucumbers, inside</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3 eggs omlette</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>09/07/2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 thick besan chila with tomatoes, onion, and carrot grated </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K10" s="2"/>
+    <row r="10">
+      <c r="K10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14/07/2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2 moong dal chila, 1 protein pudding worth 25 gm Proein, 3 paratha with Aloo Tamatar Sabji, 1 bowl Greek Yoghurt</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CalorieTracker.xlsx
+++ b/CalorieTracker.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -641,6 +641,314 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 bun butter</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 bun butter</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1 bun butter</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1 bun butter</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1 protein pudding worth 25 gm protein</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1 protein pudding worth 25 gm protein</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1 protein pudding worth 25 gm protein</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1 bana smoothie with greek yoghurt</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1 bana smoothie with greek yoghurt</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
